--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383269.5528422366</v>
+        <v>381381.9713258346</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800623</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>71.67079223712361</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>46.00903718674009</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.50084918926105</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>166.1126384455744</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>19.330028281558</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>169.0167291702126</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>126.7632886126198</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>184.4204837359412</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>57.08709511048043</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>227.8715878865055</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>168.7756050755993</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>24.29718497126791</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>105.1023993126159</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.013454095665</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>94.16481274941275</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065121</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>29.18937547121074</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>105.6571329437499</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>165.4493282694859</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>66.9044597735918</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>136.5026536665322</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>21.85553884047422</v>
+        <v>93.41221638965536</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801206</v>
+        <v>91.23070601801217</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437413</v>
+        <v>42.20569823125368</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897901</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571486</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>54.76109577523578</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463225</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.480863147839</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C2" t="n">
-        <v>864.5183462074274</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>864.5183462074274</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>864.5183462074274</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>453.5324414178198</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1620.080703211961</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.080703211961</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4428,28 +4428,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.0978234092011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>675.0978234092011</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>675.0978234092011</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>675.0978234092011</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>675.0978234092011</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>675.0978234092011</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W4" t="n">
-        <v>675.0978234092011</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X4" t="n">
-        <v>675.0978234092011</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.0978234092011</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1794.737189801198</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1794.737189801198</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1436.471491194448</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1050.683238596204</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>639.6973338065961</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>221.733525704783</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1642.958293036987</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.737189801198</v>
+        <v>1269.492534775907</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.737189801198</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="6">
@@ -4650,25 +4650,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4744,22 +4744,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>343.1165921657965</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1559.428949058529</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1190.466432118118</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>804.6781795198735</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>393.692274730266</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.682881376601</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X8" t="n">
-        <v>1421.217123115521</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,7 +4969,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4978,34 +4978,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942405</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942405</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942405</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942405</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V10" t="n">
-        <v>320.3920853967602</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>224.4233909876365</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805472</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5124,19 +5124,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1208.995055864553</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N12" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799358</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.9162705579</v>
+        <v>1474.373659475814</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.9162705579</v>
+        <v>1274.453649391366</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347406</v>
+        <v>1050.668234180872</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347406</v>
+        <v>761.5395953944299</v>
       </c>
       <c r="V13" t="n">
-        <v>1275.130855347406</v>
+        <v>506.855107188543</v>
       </c>
       <c r="W13" t="n">
-        <v>985.7136853104454</v>
+        <v>506.855107188543</v>
       </c>
       <c r="X13" t="n">
-        <v>879.5496456007323</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.5496456007323</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="14">
@@ -5261,7 +5261,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5270,7 +5270,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5285,16 +5285,16 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C16" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,7 +5437,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W16" t="n">
-        <v>731.3177283550796</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y16" t="n">
-        <v>503.3281774570622</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5595,16 +5595,16 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
         <v>2331.418122136705</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5695,25 +5695,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531122</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531122</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>898.7925182488383</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387938</v>
+        <v>644.1080300429514</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>354.6908600059908</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>126.7013091079735</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,22 +5832,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L21" t="n">
-        <v>1163.495507227045</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M21" t="n">
-        <v>1470.815640507006</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1800.678268171039</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O21" t="n">
-        <v>2080.218333389736</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>237.776412546148</v>
+        <v>203.9414681711443</v>
       </c>
       <c r="C22" t="n">
-        <v>237.776412546148</v>
+        <v>203.9414681711443</v>
       </c>
       <c r="D22" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V22" t="n">
-        <v>755.1831334811259</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441653</v>
+        <v>385.589933001384</v>
       </c>
       <c r="X22" t="n">
-        <v>237.776412546148</v>
+        <v>385.589933001384</v>
       </c>
       <c r="Y22" t="n">
-        <v>237.776412546148</v>
+        <v>385.589933001384</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,22 +6069,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2517.487947908644</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>860.7301020851611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>860.7301020851611</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>562.7003690904322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1331.795736952361</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1331.795736952361</v>
+        <v>607.4268406407765</v>
       </c>
       <c r="W25" t="n">
-        <v>1042.378566915401</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>1042.378566915401</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1042.378566915401</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6221,37 +6221,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147082</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211724</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011341</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665167</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1361.03480220787</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>1071.906163421428</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>817.2216752155415</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W28" t="n">
-        <v>527.8045051785809</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>527.8045051785809</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.8045051785809</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,28 +6446,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,16 +6476,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6497,16 +6497,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030887</v>
+        <v>439.5324299542177</v>
       </c>
       <c r="C31" t="n">
-        <v>565.4200295030887</v>
+        <v>326.3571123076815</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440238</v>
+        <v>232.0013381767164</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430016</v>
+        <v>139.8491098756936</v>
       </c>
       <c r="F31" t="n">
-        <v>360.062417126462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818946</v>
+        <v>902.6804289818926</v>
       </c>
       <c r="X31" t="n">
-        <v>730.451743365248</v>
+        <v>730.451743365246</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030887</v>
+        <v>565.4200295030867</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982982</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,28 +6920,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6950,19 +6950,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108325</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229666</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7108,16 +7108,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010311</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,25 +7175,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7239,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103122</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7345,22 +7345,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7388,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,31 +7424,31 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
         <v>3205.060556590537</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
         <v>398.9545963083204</v>
@@ -7561,13 +7561,13 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254958</v>
@@ -7576,13 +7576,13 @@
         <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184157</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7625,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,13 +7786,13 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050815</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8772,22 +8772,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="O12" t="n">
-        <v>199.7396287231156</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>8.406710013101588</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,19 +9243,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>230.7151863772036</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>20.63789864135396</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>8.406710013101815</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503161</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>412.6002929596431</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>285.1031356539336</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>308.1251096272034</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>85.66716743252489</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>120.6072560764212</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.81852608627234</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709114</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>189.3952778808841</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>42.9583400744625</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.33984058837431</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>120.7880241290914</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>85.04490739185708</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>158.8051956154454</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>71.55667754918102</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316312056</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897913</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="C2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="D2" t="n">
         <v>328416.7079457132</v>
       </c>
-      <c r="C2" t="n">
-        <v>328416.7079457132</v>
-      </c>
-      <c r="D2" t="n">
-        <v>328416.7079457131</v>
-      </c>
       <c r="E2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="F2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="G2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="H2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="I2" t="n">
-        <v>312823.2477901671</v>
+        <v>312823.247790167</v>
       </c>
       <c r="J2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.7098762157</v>
+        <v>325457.7098762158</v>
       </c>
       <c r="L2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="M2" t="n">
-        <v>328416.7079457132</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="N2" t="n">
-        <v>328416.7079457136</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457132</v>
       </c>
       <c r="P2" t="n">
-        <v>328416.7079457137</v>
+        <v>328416.7079457135</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284561</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086683</v>
+        <v>10342.90680086692</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007452</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007435</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.354170204</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="O4" t="n">
         <v>30335.51889732793</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26488,25 +26488,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-492327.2980481616</v>
+        <v>-492327.2980481613</v>
       </c>
       <c r="C6" t="n">
-        <v>97640.58116638297</v>
+        <v>97640.58116638308</v>
       </c>
       <c r="D6" t="n">
-        <v>97640.58116638282</v>
+        <v>97640.58116638291</v>
       </c>
       <c r="E6" t="n">
-        <v>-312240.8462914529</v>
+        <v>-312338.3054174255</v>
       </c>
       <c r="F6" t="n">
-        <v>212919.1901854429</v>
+        <v>212821.7310594707</v>
       </c>
       <c r="G6" t="n">
-        <v>212919.1901854429</v>
+        <v>212821.7310594707</v>
       </c>
       <c r="H6" t="n">
-        <v>212919.1901854428</v>
+        <v>212821.7310594704</v>
       </c>
       <c r="I6" t="n">
-        <v>212919.190185443</v>
+        <v>212821.7310594709</v>
       </c>
       <c r="J6" t="n">
-        <v>36495.97099284975</v>
+        <v>36398.5118668777</v>
       </c>
       <c r="K6" t="n">
-        <v>158585.5418729431</v>
+        <v>158567.0481350091</v>
       </c>
       <c r="L6" t="n">
-        <v>190023.1764274935</v>
+        <v>190023.1764274933</v>
       </c>
       <c r="M6" t="n">
-        <v>65565.06799452272</v>
+        <v>65565.06799452296</v>
       </c>
       <c r="N6" t="n">
-        <v>200366.0832283603</v>
+        <v>200366.0832283598</v>
       </c>
       <c r="O6" t="n">
-        <v>200366.0832283599</v>
+        <v>200366.0832283598</v>
       </c>
       <c r="P6" t="n">
-        <v>156203.4779255146</v>
+        <v>156203.4779255145</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108353</v>
+        <v>12.92863350108365</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>342.1133777836714</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>323.7220634917289</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>94.16434279089678</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>28.31325977179802</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>157.8101343187828</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>329.910940435855</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>56.01837628787166</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>125.3743547112082</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>229.3636862848538</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>329.1508435455731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>24.26605543732251</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>49.80904827649545</v>
       </c>
     </row>
     <row r="11">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855712</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,7 +31519,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,40 +31592,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31634,7 +31634,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>693.6972596887387</v>
       </c>
       <c r="O12" t="n">
-        <v>482.1033309642237</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718725</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>290.7704122542098</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332278</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>207.0934149315246</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>269.8956035973783</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>460.8305752819984</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>96.41974279817592</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>516.7753531914243</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>745.7948663576559</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,13 +37236,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>492.1965505854582</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,7 +37637,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>515.2185245587281</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>462.3874039146953</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
